--- a/hardware/NoisePerc_BOMv001.xlsx
+++ b/hardware/NoisePerc_BOMv001.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joebauer/Desktop/hardware/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6995C757-8771-1441-A5F4-B85441892D7D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21460" windowHeight="19880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21460" windowHeight="19880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Quantity</t>
   </si>
@@ -145,12 +151,21 @@
   </si>
   <si>
     <t>Noise Percussion v001, June 2018</t>
+  </si>
+  <si>
+    <t>104 capacitor code</t>
+  </si>
+  <si>
+    <t>103 capacitor code</t>
+  </si>
+  <si>
+    <t>Electrolytic Capacitor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -191,6 +206,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -515,21 +538,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -537,7 +560,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -551,7 +574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -564,8 +587,11 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -576,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -592,8 +618,11 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -610,7 +639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -621,7 +650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -635,7 +664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -649,7 +678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -663,7 +692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -677,7 +706,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -691,7 +720,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -705,7 +734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -719,7 +748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -733,7 +762,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -744,7 +773,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -755,7 +784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
